--- a/IRL.xlsx
+++ b/IRL.xlsx
@@ -572,214 +572,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Bohemians,L W W L L L D W W L W W D W W L W D L W L W D L L W D D</t>
-  </si>
-  <si>
-    <t>Derry City,L L D D W W L D D W D W D W D L W L L W W W W D D W L W</t>
-  </si>
-  <si>
-    <t>Drogheda,D W D L L D D W W W W L W L L D W D L L L L W D W L L W</t>
-  </si>
-  <si>
-    <t>Dundalk,L D D W W D L D W L W L D W W L W L L L D L L W W D W D</t>
-  </si>
-  <si>
-    <t>Finn Harps,D W L D L L W L D L W L D L L D L L L W W W W D L W D L</t>
-  </si>
-  <si>
-    <t>Longford,L L L D L L D D L L L L L D L D L D D L L L L L W L L L</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,W W W W W W W D L L W D W L D W W W W W L W W W W L W D</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,W D W W L D D W W W W W L L D W W L L L L D W W L L D L</t>
-  </si>
-  <si>
-    <t>St. Patricks,W W D W W W D L L W D L W W W D L W W L W W L W L L W L</t>
-  </si>
-  <si>
-    <t>Waterford,W L L L W L L L L L L L W L W D L W W W W L W D L W D W</t>
-  </si>
-  <si>
-    <t>Bohemians,0 1 1 1 1 1 1 4 2 1 5 3 1 5 1 0 3 1 0 1 2 2 3 1 1 4 1 1,(48)</t>
-  </si>
-  <si>
-    <t>Derry City,0 0 1 1 1 2 1 1 1 1 2 2 1 2 1 1 2 0 2 2 3 1 2 2 3 3 1 1,(40)</t>
-  </si>
-  <si>
-    <t>Drogheda,1 4 1 0 1 1 1 7 3 1 4 1 2 0 0 1 3 1 0 1 0 0 2 0 3 0 0 2,(40)</t>
-  </si>
-  <si>
-    <t>Dundalk,0 1 1 2 3 2 0 1 2 1 2 1 1 1 2 1 1 1 0 1 1 0 1 4 2 2 1 1,(36)</t>
-  </si>
-  <si>
-    <t>Finn Harps,1 2 0 0 0 0 2 0 1 0 2 1 1 1 1 1 1 0 0 1 3 3 2 2 1 2 2 1,(31)</t>
-  </si>
-  <si>
-    <t>Longford,0 0 1 0 0 0 2 1 0 0 1 0 1 1 1 1 0 1 1 0 0 0 1 2 1 0 1 0,(16)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,2 2 1 2 2 3 2 1 1 0 1 1 4 0 1 3 4 3 1 1 1 2 1 1 2 0 2 1,(45)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,1 1 1 3 0 1 1 1 3 2 1 2 1 0 1 4 1 0 0 0 1 0 2 2 0 1 1 0,(31)</t>
-  </si>
-  <si>
-    <t>St. Patricks,1 2 1 1 2 3 1 1 1 2 2 0 3 2 4 1 2 1 2 1 4 2 1 3 0 0 1 0,(44)</t>
-  </si>
-  <si>
-    <t>Waterford,2 1 0 0 1 0 0 0 0 0 1 0 3 1 2 1 0 1 1 2 1 1 4 1 0 1 1 4,(29)</t>
-  </si>
-  <si>
-    <t>Bohemians,1 0 0 3 2 2 1 0 0 2 1 0 1 0 0 4 2 1 1 0 3 1 3 2 2 1 1 1,(35)</t>
-  </si>
-  <si>
-    <t>Derry City,2 2 1 1 0 1 2 1 1 0 2 1 1 1 1 2 0 1 4 0 0 0 1 2 3 0 2 0,(32)</t>
-  </si>
-  <si>
-    <t>Drogheda,1 0 1 1 2 1 1 0 1 0 1 2 1 5 1 1 1 1 2 2 3 1 1 0 2 1 1 0,(34)</t>
-  </si>
-  <si>
-    <t>Dundalk,1 1 1 1 0 2 1 1 1 5 0 3 1 0 1 3 0 4 1 2 1 1 2 1 1 2 0 1,(38)</t>
-  </si>
-  <si>
-    <t>Finn Harps,1 1 1 0 2 2 1 4 1 1 1 2 1 2 4 1 3 1 1 0 0 1 1 2 2 1 2 4,(43)</t>
-  </si>
-  <si>
-    <t>Longford,1 4 2 0 1 3 2 1 2 2 4 1 3 1 2 1 1 1 1 2 1 3 4 3 0 3 4 2,(55)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,0 1 0 1 0 0 1 1 2 1 0 1 1 1 1 1 2 1 0 0 2 0 0 0 1 1 0 1,(20)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,0 1 0 1 1 1 1 0 0 0 0 1 2 2 1 0 0 1 1 1 2 0 0 1 1 4 1 2,(25)</t>
-  </si>
-  <si>
-    <t>St. Patricks,0 0 1 0 0 0 1 2 3 1 2 2 1 0 1 1 3 0 0 3 1 1 3 2 2 1 0 1,(32)</t>
-  </si>
-  <si>
-    <t>Waterford,1 2 1 1 0 3 3 7 3 1 2 3 1 4 1 1 2 0 0 1 0 2 1 1 2 0 1 1,(45)</t>
-  </si>
-  <si>
-    <t>Bohemians,1 1 1 4 3 3 2 4 2 3 6 3 2 5 1 4 5 2 1 1 5 3 6 3 3 5 2 2,(83)</t>
-  </si>
-  <si>
-    <t>Derry City,2 2 2 2 1 3 3 2 2 1 4 3 2 3 2 3 2 1 6 2 3 1 3 4 6 3 3 1,(72)</t>
-  </si>
-  <si>
-    <t>Drogheda,2 4 2 1 3 2 2 7 4 1 5 3 3 5 1 2 4 2 2 3 3 1 3 0 5 1 1 2,(74)</t>
-  </si>
-  <si>
-    <t>Dundalk,1 2 2 3 3 4 1 2 3 6 2 4 2 1 3 4 1 5 1 3 2 1 3 5 3 4 1 2,(74)</t>
-  </si>
-  <si>
-    <t>Finn Harps,2 3 1 0 2 2 3 4 2 1 3 3 2 3 5 2 4 1 1 1 3 4 3 4 3 3 4 5,(74)</t>
-  </si>
-  <si>
-    <t>Longford,1 4 3 0 1 3 4 2 2 2 5 1 4 2 3 2 1 2 2 2 1 3 5 5 1 3 5 2,(71)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,2 3 1 3 2 3 3 2 3 1 1 2 5 1 2 4 6 4 1 1 3 2 1 1 3 1 2 2,(65)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,1 2 1 4 1 2 2 1 3 2 1 3 3 2 2 4 1 1 1 1 3 0 2 3 1 5 2 2,(56)</t>
-  </si>
-  <si>
-    <t>St. Patricks,1 2 2 1 2 3 2 3 4 3 4 2 4 2 5 2 5 1 2 4 5 3 4 5 2 1 1 1,(76)</t>
-  </si>
-  <si>
-    <t>Waterford,3 3 1 1 1 3 3 7 3 1 3 3 4 5 3 2 2 1 1 3 1 3 5 2 2 1 2 5,(74)</t>
-  </si>
-  <si>
-    <t>Bohemians,0-1 0-1 0-1 1-3 2-1 1-2 1-1 4-0 0-2 2-1 5-1 3-0 1-1 5-0 1-0 4-0 3-2 1-1 1-0 1-0 3-2 1-2 3-3 1-2 2-1 1-4 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Derry City,2-0 0-2 1-1 1-1 0-1 1-2 1-2 1-1 1-1 0-1 2-2 1-2 1-1 1-2 1-1 2-1 2-0 1-0 2-4 0-2 3-0 1-0 1-2 2-2 3-3 3-0 2-1 1-0</t>
-  </si>
-  <si>
-    <t>Drogheda,1-1 0-4 1-1 0-1 2-1 1-1 1-1 0-7 3-1 0-1 4-1 1-2 1-2 5-0 0-1 1-1 3-1 1-1 2-0 1-2 3-0 0-1 1-2 0-0 3-2 1-0 0-1 2-0</t>
-  </si>
-  <si>
-    <t>Dundalk,0-1 1-1 1-1 2-1 0-3 2-2 0-1 1-1 2-1 5-1 0-2 1-3 1-1 0-1 2-1 3-1 1-0 1-4 1-0 1-2 1-1 1-0 2-1 4-1 2-1 2-2 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Finn Harps,1-1 2-1 1-0 0-0 0-2 0-2 1-2 4-0 1-1 0-1 1-2 1-2 1-1 1-2 4-1 1-1 3-1 0-1 1-0 0-1 0-3 3-1 2-1 2-2 1-2 1-2 2-2 4-1</t>
-  </si>
-  <si>
-    <t>Longford,0-1 0-4 2-1 0-0 1-0 3-0 2-2 1-1 0-2 2-0 4-1 0-1 1-3 1-1 1-2 1-1 0-1 1-1 1-1 0-2 1-0 0-3 4-1 3-2 1-0 3-0 1-4 2-0</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,0-2 2-1 0-1 2-1 0-2 3-0 1-2 1-1 2-1 0-1 0-1 1-1 1-4 1-0 1-1 3-1 2-4 3-1 1-0 0-1 2-1 2-0 0-1 0-1 2-1 1-0 2-0 1-1</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,0-1 1-1 1-0 1-3 0-1 1-1 1-1 0-1 3-0 2-0 0-1 1-2 1-2 2-0 1-1 4-0 0-1 1-0 0-1 1-0 1-2 0-0 2-0 2-1 0-1 4-1 1-1 2-0</t>
-  </si>
-  <si>
-    <t>St. Patricks,0-1 2-0 1-1 1-0 0-2 3-0 1-1 1-2 3-1 2-1 2-2 0-2 1-3 2-0 4-1 1-1 3-2 1-0 2-0 3-1 1-4 2-1 3-1 3-2 2-0 0-1 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Waterford,1-2 2-1 0-1 1-0 1-0 0-3 3-0 0-7 3-0 0-1 1-2 3-0 1-3 1-4 1-2 1-1 2-0 0-1 1-0 1-2 1-0 2-1 4-1 1-1 2-0 1-0 1-1 4-1</t>
-  </si>
-  <si>
-    <t>Bohemians,-1 1 1 -2 -1 -1 0 4 2 -1 4 3 0 5 1 -4 1 0 -1 1 -1 1 0 -1 -1 3 0 0,(13)</t>
-  </si>
-  <si>
-    <t>Derry City,-2 -2 0 0 1 1 -1 0 0 1 0 1 0 1 0 -1 2 -1 -2 2 3 1 1 0 0 3 -1 1,(8)</t>
-  </si>
-  <si>
-    <t>Drogheda,0 4 0 -1 -1 0 0 7 2 1 3 -1 1 -5 -1 0 2 0 -2 -1 -3 -1 1 0 1 -1 -1 2,(6)</t>
-  </si>
-  <si>
-    <t>Dundalk,-1 0 0 1 3 0 -1 0 1 -4 2 -2 0 1 1 -2 1 -3 -1 -1 0 -1 -1 3 1 0 1 0,(-2)</t>
-  </si>
-  <si>
-    <t>Finn Harps,0 1 -1 0 -2 -2 1 -4 0 -1 1 -1 0 -1 -3 0 -2 -1 -1 1 3 2 1 0 -1 1 0 -3,(-12)</t>
-  </si>
-  <si>
-    <t>Longford,-1 -4 -1 0 -1 -3 0 0 -2 -2 -3 -1 -2 0 -1 0 -1 0 0 -2 -1 -3 -3 -1 1 -3 -3 -2,(-39)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,2 1 1 1 2 3 1 0 -1 -1 1 0 3 -1 0 2 2 2 1 1 -1 2 1 1 1 -1 2 0,(25)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,1 0 1 2 -1 0 0 1 3 2 1 1 -1 -2 0 4 1 -1 -1 -1 -1 0 2 1 -1 -3 0 -2,(6)</t>
-  </si>
-  <si>
-    <t>St. Patricks,1 2 0 1 2 3 0 -1 -2 1 0 -2 2 2 3 0 -1 1 2 -2 3 1 -2 1 -2 -1 1 -1,(12)</t>
-  </si>
-  <si>
-    <t>Waterford,1 -1 -1 -1 1 -3 -3 -7 -3 -1 -1 -3 2 -3 1 0 -2 1 1 1 1 -1 3 0 -2 1 0 3,(-16)</t>
-  </si>
-  <si>
-    <t>Bohemians,St. Patricks(2) Dundalk(7) Waterford(9) Sligo Rovers(3) Shamrock Rovers(1) Derry City(4) Drogheda(6) Finn Harps(8) Longford(10) St. Patricks(2) Dundalk(7) Waterford(9) Derry City(4) Drogheda(6) Shamrock Rovers(1) Sligo Rovers(3) St. Patricks(2) Longford(10) Waterford(9) Sligo Rovers(3) Drogheda(6) Finn Harps(8) Derry City(4) Finn Harps(8) Dundalk(7) Longford(10) Dundalk(7) Shamrock Rovers(1)</t>
-  </si>
-  <si>
-    <t>Derry City,St. Patricks(2) Shamrock Rovers(1) Drogheda(6) Dundalk(7) Sligo Rovers(3) Bohemians(5) Finn Harps(8) Longford(10) Shamrock Rovers(1) Waterford(9) St. Patricks(2) Drogheda(6) Bohemians(5) Finn Harps(8) Sligo Rovers(3) Dundalk(7) Waterford(9) St. Patricks(2) Shamrock Rovers(1) Longford(10) Drogheda(6) Dundalk(7) Sligo Rovers(3) Finn Harps(8) Bohemians(5) Longford(10) Shamrock Rovers(1) St. Patricks(2)</t>
-  </si>
-  <si>
-    <t>Drogheda,Finn Harps(8) Longford(10) Derry City(4) Shamrock Rovers(1) Dundalk(7) Sligo Rovers(3) Bohemians(5) Waterford(9) St. Patricks(2) Finn Harps(8) Longford(10) Derry City(4) Sligo Rovers(3) Bohemians(5) Dundalk(7) Shamrock Rovers(1) Finn Harps(8) Longford(10) St. Patricks(2) Waterford(9) Derry City(4) Shamrock Rovers(1) Dundalk(7) Sligo Rovers(3) Bohemians(5) Waterford(9) St. Patricks(2) Longford(10)</t>
-  </si>
-  <si>
-    <t>Dundalk,Bohemians(5) St. Patricks(2) Derry City(4) Drogheda(6) Waterford(9) Longford(10) Sligo Rovers(3) Finn Harps(8) Shamrock Rovers(1) Bohemians(5) St. Patricks(2) Waterford(9) Longford(10) Drogheda(6) Derry City(4) Shamrock Rovers(1) Finn Harps(8) St. Patricks(2) Derry City(4) Drogheda(6) Waterford(9) Longford(10) Sligo Rovers(3) Sligo Rovers(3) Bohemians(5) Finn Harps(8) Shamrock Rovers(1) Bohemians(5)</t>
-  </si>
-  <si>
-    <t>Finn Harps,Drogheda(6) Waterford(9) Sligo Rovers(3) Longford(10) St. Patricks(2) Shamrock Rovers(1) Derry City(4) Bohemians(5) Dundalk(7) Drogheda(6) Waterford(9) Sligo Rovers(3) Shamrock Rovers(1) Derry City(4) St. Patricks(2) Longford(10) Drogheda(6) Waterford(9) Dundalk(7) Sligo Rovers(3) Longford(10) St. Patricks(2) Shamrock Rovers(1) Derry City(4) Bohemians(5) Bohemians(5) Dundalk(7) Waterford(9)</t>
-  </si>
-  <si>
-    <t>Longford,Sligo Rovers(3) Drogheda(6) Shamrock Rovers(1) Finn Harps(8) Waterford(9) St. Patricks(2) Dundalk(7) Derry City(4) Bohemians(5) Sligo Rovers(3) Drogheda(6) Shamrock Rovers(1) St. Patricks(2) Dundalk(7) Waterford(9) Finn Harps(8) Sligo Rovers(3) Drogheda(6) Bohemians(5) Derry City(4) Shamrock Rovers(1) Finn Harps(8) Waterford(9) St. Patricks(2) Dundalk(7) Derry City(4) Bohemians(5) Drogheda(6)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,Derry City(4) Longford(10) Drogheda(6) Bohemians(5) Finn Harps(8) Waterford(9) St. Patricks(2) Derry City(4) Dundalk(7) Sligo Rovers(3) Longford(10) Finn Harps(8) Waterford(9) Bohemians(5) Drogheda(6) Dundalk(7) Derry City(4) St. Patricks(2) Longford(10) Drogheda(6) Finn Harps(8) Waterford(9) Sligo Rovers(3) St. Patricks(2) Derry City(4) Dundalk(7) Sligo Rovers(3) Bohemians(5)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,Longford(10) Shamrock Rovers(1) Finn Harps(8) Bohemians(5) Derry City(4) Drogheda(6) St. Patricks(2) Dundalk(7) Waterford(9) Longford(10) Shamrock Rovers(1) Finn Harps(8) Drogheda(6) St. Patricks(2) Derry City(4) Bohemians(5) Longford(10) Waterford(9) Finn Harps(8) Bohemians(5) Derry City(4) Drogheda(6) St. Patricks(2) Dundalk(7) Shamrock Rovers(1) Dundalk(7) Waterford(9) Shamrock Rovers(1)</t>
-  </si>
-  <si>
-    <t>St. Patricks,Bohemians(5) Derry City(4) Dundalk(7) Waterford(9) Finn Harps(8) Longford(10) Sligo Rovers(3) Shamrock Rovers(1) Drogheda(6) Bohemians(5) Derry City(4) Dundalk(7) Longford(10) Sligo Rovers(3) Finn Harps(8) Waterford(9) Bohemians(5) Derry City(4) Drogheda(6) Shamrock Rovers(1) Dundalk(7) Waterford(9) Finn Harps(8) Longford(10) Sligo Rovers(3) Shamrock Rovers(1) Drogheda(6) Derry City(4)</t>
-  </si>
-  <si>
-    <t>Waterford,Derry City(4) Finn Harps(8) Bohemians(5) St. Patricks(2) Longford(10) Dundalk(7) Shamrock Rovers(1) Drogheda(6) Sligo Rovers(3) Derry City(4) Finn Harps(8) Bohemians(5) Dundalk(7) Shamrock Rovers(1) Longford(10) St. Patricks(2) Derry City(4) Finn Harps(8) Sligo Rovers(3) Drogheda(6) Bohemians(5) St. Patricks(2) Longford(10) Dundalk(7) Shamrock Rovers(1) Drogheda(6) Sligo Rovers(3) Finn Harps(8)</t>
+    <t>Bohemians,D L L W D D</t>
+  </si>
+  <si>
+    <t>Derry City,W D D W L W</t>
+  </si>
+  <si>
+    <t>Drogheda,W D W L L W</t>
+  </si>
+  <si>
+    <t>Dundalk,L W W D W D</t>
+  </si>
+  <si>
+    <t>Finn Harps,W D L W D L</t>
+  </si>
+  <si>
+    <t>Longford,L L W L L L</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,W W W L W D</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,W W L L D L</t>
+  </si>
+  <si>
+    <t>St. Patricks,L W L L W L</t>
+  </si>
+  <si>
+    <t>Waterford,W D L W D W</t>
+  </si>
+  <si>
+    <t>Bohemians,3 1 1 4 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Derry City,2 2 3 3 1 1,(12)</t>
+  </si>
+  <si>
+    <t>Drogheda,2 0 3 0 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Dundalk,1 4 2 2 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Finn Harps,2 2 1 2 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Longford,1 2 1 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,1 1 2 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,2 2 0 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>St. Patricks,1 3 0 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Waterford,4 1 0 1 1 4,(11)</t>
+  </si>
+  <si>
+    <t>Bohemians,3 2 2 1 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Derry City,1 2 3 0 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Drogheda,1 0 2 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Dundalk,2 1 1 2 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Finn Harps,1 2 2 1 2 4,(12)</t>
+  </si>
+  <si>
+    <t>Longford,4 3 0 3 4 2,(16)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,0 0 1 1 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,0 1 1 4 1 2,(9)</t>
+  </si>
+  <si>
+    <t>St. Patricks,3 2 2 1 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Waterford,1 1 2 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Bohemians,6 3 3 5 2 2,(21)</t>
+  </si>
+  <si>
+    <t>Derry City,3 4 6 3 3 1,(20)</t>
+  </si>
+  <si>
+    <t>Drogheda,3 0 5 1 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Dundalk,3 5 3 4 1 2,(18)</t>
+  </si>
+  <si>
+    <t>Finn Harps,3 4 3 3 4 5,(22)</t>
+  </si>
+  <si>
+    <t>Longford,5 5 1 3 5 2,(21)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,1 1 3 1 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,2 3 1 5 2 2,(15)</t>
+  </si>
+  <si>
+    <t>St. Patricks,4 5 2 1 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Waterford,5 2 2 1 2 5,(17)</t>
+  </si>
+  <si>
+    <t>Bohemians,3-3 1-2 2-1 1-4 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Derry City,1-2 2-2 3-3 3-0 2-1 1-0</t>
+  </si>
+  <si>
+    <t>Drogheda,1-2 0-0 3-2 1-0 0-1 2-0</t>
+  </si>
+  <si>
+    <t>Dundalk,2-1 4-1 2-1 2-2 1-0 1-1</t>
+  </si>
+  <si>
+    <t>Finn Harps,2-1 2-2 1-2 1-2 2-2 4-1</t>
+  </si>
+  <si>
+    <t>Longford,4-1 3-2 1-0 3-0 1-4 2-0</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,0-1 0-1 2-1 1-0 2-0 1-1</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,2-0 2-1 0-1 4-1 1-1 2-0</t>
+  </si>
+  <si>
+    <t>St. Patricks,3-1 3-2 2-0 0-1 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Waterford,4-1 1-1 2-0 1-0 1-1 4-1</t>
+  </si>
+  <si>
+    <t>Bohemians,0 -1 -1 3 0 0,(1)</t>
+  </si>
+  <si>
+    <t>Derry City,1 0 0 3 -1 1,(4)</t>
+  </si>
+  <si>
+    <t>Drogheda,1 0 1 -1 -1 2,(2)</t>
+  </si>
+  <si>
+    <t>Dundalk,-1 3 1 0 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Finn Harps,1 0 -1 1 0 -3,(-2)</t>
+  </si>
+  <si>
+    <t>Longford,-3 -1 1 -3 -3 -2,(-11)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,1 1 1 -1 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,2 1 -1 -3 0 -2,(-3)</t>
+  </si>
+  <si>
+    <t>St. Patricks,-2 1 -2 -1 1 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Waterford,3 0 -2 1 0 3,(5)</t>
+  </si>
+  <si>
+    <t>Bohemians,Derry City(4) Finn Harps(8) Dundalk(7) Longford(10) Dundalk(7) Shamrock Rovers(1)</t>
+  </si>
+  <si>
+    <t>Derry City,Sligo Rovers(3) Finn Harps(8) Bohemians(5) Longford(10) Shamrock Rovers(1) St. Patricks(2)</t>
+  </si>
+  <si>
+    <t>Drogheda,Dundalk(7) Sligo Rovers(3) Bohemians(5) Waterford(9) St. Patricks(2) Longford(10)</t>
+  </si>
+  <si>
+    <t>Dundalk,Sligo Rovers(3) Sligo Rovers(3) Bohemians(5) Finn Harps(8) Shamrock Rovers(1) Bohemians(5)</t>
+  </si>
+  <si>
+    <t>Finn Harps,Shamrock Rovers(1) Derry City(4) Bohemians(5) Bohemians(5) Dundalk(7) Waterford(9)</t>
+  </si>
+  <si>
+    <t>Longford,Waterford(9) St. Patricks(2) Dundalk(7) Derry City(4) Bohemians(5) Drogheda(6)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,Sligo Rovers(3) St. Patricks(2) Derry City(4) Dundalk(7) Sligo Rovers(3) Bohemians(5)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,St. Patricks(2) Dundalk(7) Shamrock Rovers(1) Dundalk(7) Waterford(9) Shamrock Rovers(1)</t>
+  </si>
+  <si>
+    <t>St. Patricks,Finn Harps(8) Longford(10) Sligo Rovers(3) Shamrock Rovers(1) Drogheda(6) Derry City(4)</t>
+  </si>
+  <si>
+    <t>Waterford,Longford(10) Dundalk(7) Shamrock Rovers(1) Drogheda(6) Sligo Rovers(3) Finn Harps(8)</t>
   </si>
   <si>
     <t>irl_division</t>

--- a/IRL.xlsx
+++ b/IRL.xlsx
@@ -584,214 +584,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Bohemians,D L W W L L L D W W L W W D W W L W D L W L W D L L W D D L</t>
-  </si>
-  <si>
-    <t>Derry City,L L L D D W W L D D W D W D W D L W L L W W W W D D W L W L</t>
-  </si>
-  <si>
-    <t>Drogheda,L D W D L L D D W W W W L W L L D W D L L L L W D W L L W W</t>
-  </si>
-  <si>
-    <t>Dundalk,L L D D W W D L D W L W L D W W L W L L L D L L W W D W D L</t>
-  </si>
-  <si>
-    <t>Finn Harps,W D W L D L L W L D L W L D L L D L L L W W W W D L W D L D</t>
-  </si>
-  <si>
-    <t>Longford,D L L L D L L D D L L L L L D L D L D D L L L L L W L L L L</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,D W W W W W W W D L L W D W L D W W W W W L W W W W L W D W</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,W W D W W L D D W W W W W L L D W W L L L L D W W L L D L D</t>
-  </si>
-  <si>
-    <t>St. Patricks,W W W D W W W D L L W D L W W W D L W W L W W L W L L W L W</t>
-  </si>
-  <si>
-    <t>Waterford,L W L L L W L L L L L L L W L W D L W W W W L W D L W D W W</t>
-  </si>
-  <si>
-    <t>Bohemians,2 0 1 1 1 1 1 1 4 2 1 5 3 1 5 1 0 3 1 0 1 2 2 3 1 1 4 1 1 1,(51)</t>
-  </si>
-  <si>
-    <t>Derry City,1 0 0 1 1 1 2 1 1 1 1 2 2 1 2 1 1 2 0 2 2 3 1 2 2 3 3 1 1 0,(41)</t>
-  </si>
-  <si>
-    <t>Drogheda,1 1 4 1 0 1 1 1 7 3 1 4 1 2 0 0 1 3 1 0 1 0 0 2 0 3 0 0 2 1,(42)</t>
-  </si>
-  <si>
-    <t>Dundalk,1 0 1 1 2 3 2 0 1 2 1 2 1 1 1 2 1 1 1 0 1 1 0 1 4 2 2 1 1 0,(37)</t>
-  </si>
-  <si>
-    <t>Finn Harps,2 1 2 0 0 0 0 2 0 1 0 2 1 1 1 1 1 1 0 0 1 3 3 2 2 1 2 2 1 2,(35)</t>
-  </si>
-  <si>
-    <t>Longford,2 0 0 1 0 0 0 2 1 0 0 1 0 1 1 1 1 0 1 1 0 0 0 1 2 1 0 1 0 0,(18)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,1 2 2 1 2 2 3 2 1 1 0 1 1 4 0 1 3 4 3 1 1 1 2 1 1 2 0 2 1 1,(47)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,2 1 1 1 3 0 1 1 1 3 2 1 2 1 0 1 4 1 0 0 0 1 0 2 2 0 1 1 0 2,(35)</t>
-  </si>
-  <si>
-    <t>St. Patricks,2 1 2 1 1 2 3 1 1 1 2 2 0 3 2 4 1 2 1 2 1 4 2 1 3 0 0 1 0 1,(47)</t>
-  </si>
-  <si>
-    <t>Waterford,1 2 1 0 0 1 0 0 0 0 0 1 0 3 1 2 1 0 1 1 2 1 1 4 1 0 1 1 4 2,(32)</t>
-  </si>
-  <si>
-    <t>Bohemians,2 1 0 0 3 2 2 1 0 0 2 1 0 1 0 0 4 2 1 1 0 3 1 3 2 2 1 1 1 2,(39)</t>
-  </si>
-  <si>
-    <t>Derry City,2 2 2 1 1 0 1 2 1 1 0 2 1 1 1 1 2 0 1 4 0 0 0 1 2 3 0 2 0 1,(35)</t>
-  </si>
-  <si>
-    <t>Drogheda,2 1 0 1 1 2 1 1 0 1 0 1 2 1 5 1 1 1 1 2 2 3 1 1 0 2 1 1 0 0,(36)</t>
-  </si>
-  <si>
-    <t>Dundalk,2 1 1 1 1 0 2 1 1 1 5 0 3 1 0 1 3 0 4 1 2 1 1 2 1 1 2 0 1 1,(41)</t>
-  </si>
-  <si>
-    <t>Finn Harps,1 1 1 1 0 2 2 1 4 1 1 1 2 1 2 4 1 3 1 1 0 0 1 1 2 2 1 2 4 2,(46)</t>
-  </si>
-  <si>
-    <t>Longford,2 1 4 2 0 1 3 2 1 2 2 4 1 3 1 2 1 1 1 1 2 1 3 4 3 0 3 4 2 1,(58)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,1 0 1 0 1 0 0 1 1 2 1 0 1 1 1 1 1 2 1 0 0 2 0 0 0 1 1 0 1 0,(21)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,1 0 1 0 1 1 1 1 0 0 0 0 1 2 2 1 0 0 1 1 1 2 0 0 1 1 4 1 2 2,(28)</t>
-  </si>
-  <si>
-    <t>St. Patricks,1 0 0 1 0 0 0 1 2 3 1 2 2 1 0 1 1 3 0 0 3 1 1 3 2 2 1 0 1 0,(33)</t>
-  </si>
-  <si>
-    <t>Waterford,2 1 2 1 1 0 3 3 7 3 1 2 3 1 4 1 1 2 0 0 1 0 2 1 1 2 0 1 1 1,(48)</t>
-  </si>
-  <si>
-    <t>Bohemians,4 1 1 1 4 3 3 2 4 2 3 6 3 2 5 1 4 5 2 1 1 5 3 6 3 3 5 2 2 3,(90)</t>
-  </si>
-  <si>
-    <t>Derry City,3 2 2 2 2 1 3 3 2 2 1 4 3 2 3 2 3 2 1 6 2 3 1 3 4 6 3 3 1 1,(76)</t>
-  </si>
-  <si>
-    <t>Drogheda,3 2 4 2 1 3 2 2 7 4 1 5 3 3 5 1 2 4 2 2 3 3 1 3 0 5 1 1 2 1,(78)</t>
-  </si>
-  <si>
-    <t>Dundalk,3 1 2 2 3 3 4 1 2 3 6 2 4 2 1 3 4 1 5 1 3 2 1 3 5 3 4 1 2 1,(78)</t>
-  </si>
-  <si>
-    <t>Finn Harps,3 2 3 1 0 2 2 3 4 2 1 3 3 2 3 5 2 4 1 1 1 3 4 3 4 3 3 4 5 4,(81)</t>
-  </si>
-  <si>
-    <t>Longford,4 1 4 3 0 1 3 4 2 2 2 5 1 4 2 3 2 1 2 2 2 1 3 5 5 1 3 5 2 1,(76)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,2 2 3 1 3 2 3 3 2 3 1 1 2 5 1 2 4 6 4 1 1 3 2 1 1 3 1 2 2 1,(68)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,3 1 2 1 4 1 2 2 1 3 2 1 3 3 2 2 4 1 1 1 1 3 0 2 3 1 5 2 2 4,(63)</t>
-  </si>
-  <si>
-    <t>St. Patricks,3 1 2 2 1 2 3 2 3 4 3 4 2 4 2 5 2 5 1 2 4 5 3 4 5 2 1 1 1 1,(80)</t>
-  </si>
-  <si>
-    <t>Waterford,3 3 3 1 1 1 3 3 7 3 1 3 3 4 5 3 2 2 1 1 3 1 3 5 2 2 1 2 5 3,(80)</t>
-  </si>
-  <si>
-    <t>Bohemians,2-2 0-1 0-1 0-1 1-3 2-1 1-2 1-1 4-0 0-2 2-1 5-1 3-0 1-1 5-0 1-0 4-0 3-2 1-1 1-0 1-0 3-2 1-2 3-3 1-2 2-1 1-4 1-1 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Derry City,1-2 2-0 0-2 1-1 1-1 0-1 1-2 1-2 1-1 1-1 0-1 2-2 1-2 1-1 1-2 1-1 2-1 2-0 1-0 2-4 0-2 3-0 1-0 1-2 2-2 3-3 3-0 2-1 1-0 1-0</t>
-  </si>
-  <si>
-    <t>Drogheda,2-1 1-1 0-4 1-1 0-1 2-1 1-1 1-1 0-7 3-1 0-1 4-1 1-2 1-2 5-0 0-1 1-1 3-1 1-1 2-0 1-2 3-0 0-1 1-2 0-0 3-2 1-0 0-1 2-0 1-0</t>
-  </si>
-  <si>
-    <t>Dundalk,2-1 0-1 1-1 1-1 2-1 0-3 2-2 0-1 1-1 2-1 5-1 0-2 1-3 1-1 0-1 2-1 3-1 1-0 1-4 1-0 1-2 1-1 1-0 2-1 4-1 2-1 2-2 1-0 1-1 1-0</t>
-  </si>
-  <si>
-    <t>Finn Harps,1-2 1-1 2-1 1-0 0-0 0-2 0-2 1-2 4-0 1-1 0-1 1-2 1-2 1-1 1-2 4-1 1-1 3-1 0-1 1-0 0-1 0-3 3-1 2-1 2-2 1-2 1-2 2-2 4-1 2-2</t>
-  </si>
-  <si>
-    <t>Longford,2-2 0-1 0-4 2-1 0-0 1-0 3-0 2-2 1-1 0-2 2-0 4-1 0-1 1-3 1-1 1-2 1-1 0-1 1-1 1-1 0-2 1-0 0-3 4-1 3-2 1-0 3-0 1-4 2-0 0-1</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,1-1 0-2 2-1 0-1 2-1 0-2 3-0 1-2 1-1 2-1 0-1 0-1 1-1 1-4 1-0 1-1 3-1 2-4 3-1 1-0 0-1 2-1 2-0 0-1 0-1 2-1 1-0 2-0 1-1 0-1</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,1-2 0-1 1-1 1-0 1-3 0-1 1-1 1-1 0-1 3-0 2-0 0-1 1-2 1-2 2-0 1-1 4-0 0-1 1-0 0-1 1-0 1-2 0-0 2-0 2-1 0-1 4-1 1-1 2-0 2-2</t>
-  </si>
-  <si>
-    <t>St. Patricks,2-1 0-1 2-0 1-1 1-0 0-2 3-0 1-1 1-2 3-1 2-1 2-2 0-2 1-3 2-0 4-1 1-1 3-2 1-0 2-0 3-1 1-4 2-1 3-1 3-2 2-0 0-1 0-1 1-0 1-0</t>
-  </si>
-  <si>
-    <t>Waterford,1-2 1-2 2-1 0-1 1-0 1-0 0-3 3-0 0-7 3-0 0-1 1-2 3-0 1-3 1-4 1-2 1-1 2-0 0-1 1-0 1-2 1-0 2-1 4-1 1-1 2-0 1-0 1-1 4-1 1-2</t>
-  </si>
-  <si>
-    <t>Bohemians,0 -1 1 1 -2 -1 -1 0 4 2 -1 4 3 0 5 1 -4 1 0 -1 1 -1 1 0 -1 -1 3 0 0 -1,(12)</t>
-  </si>
-  <si>
-    <t>Derry City,-1 -2 -2 0 0 1 1 -1 0 0 1 0 1 0 1 0 -1 2 -1 -2 2 3 1 1 0 0 3 -1 1 -1,(6)</t>
-  </si>
-  <si>
-    <t>Drogheda,-1 0 4 0 -1 -1 0 0 7 2 1 3 -1 1 -5 -1 0 2 0 -2 -1 -3 -1 1 0 1 -1 -1 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Dundalk,-1 -1 0 0 1 3 0 -1 0 1 -4 2 -2 0 1 1 -2 1 -3 -1 -1 0 -1 -1 3 1 0 1 0 -1,(-4)</t>
-  </si>
-  <si>
-    <t>Finn Harps,1 0 1 -1 0 -2 -2 1 -4 0 -1 1 -1 0 -1 -3 0 -2 -1 -1 1 3 2 1 0 -1 1 0 -3 0,(-11)</t>
-  </si>
-  <si>
-    <t>Longford,0 -1 -4 -1 0 -1 -3 0 0 -2 -2 -3 -1 -2 0 -1 0 -1 0 0 -2 -1 -3 -3 -1 1 -3 -3 -2 -1,(-40)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,0 2 1 1 1 2 3 1 0 -1 -1 1 0 3 -1 0 2 2 2 1 1 -1 2 1 1 1 -1 2 0 1,(26)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,1 1 0 1 2 -1 0 0 1 3 2 1 1 -1 -2 0 4 1 -1 -1 -1 -1 0 2 1 -1 -3 0 -2 0,(7)</t>
-  </si>
-  <si>
-    <t>St. Patricks,1 1 2 0 1 2 3 0 -1 -2 1 0 -2 2 2 3 0 -1 1 2 -2 3 1 -2 1 -2 -1 1 -1 1,(14)</t>
-  </si>
-  <si>
-    <t>Waterford,-1 1 -1 -1 -1 1 -3 -3 -7 -3 -1 -1 -3 2 -3 1 0 -2 1 1 1 1 -1 3 0 -2 1 0 3 1,(-16)</t>
-  </si>
-  <si>
-    <t>Bohemians,Longford(10) St. Patricks(2) Dundalk(7) Waterford(8) Sligo Rovers(3) Shamrock Rovers(1) Derry City(4) Drogheda(6) Finn Harps(9) Longford(10) St. Patricks(2) Dundalk(7) Waterford(8) Derry City(4) Drogheda(6) Shamrock Rovers(1) Sligo Rovers(3) St. Patricks(2) Longford(10) Waterford(8) Sligo Rovers(3) Drogheda(6) Finn Harps(9) Derry City(4) Finn Harps(9) Dundalk(7) Longford(10) Dundalk(7) Shamrock Rovers(1) Waterford(8)</t>
-  </si>
-  <si>
-    <t>Derry City,Waterford(8) St. Patricks(2) Shamrock Rovers(1) Drogheda(6) Dundalk(7) Sligo Rovers(3) Bohemians(5) Finn Harps(9) Longford(10) Shamrock Rovers(1) Waterford(8) St. Patricks(2) Drogheda(6) Bohemians(5) Finn Harps(9) Sligo Rovers(3) Dundalk(7) Waterford(8) St. Patricks(2) Shamrock Rovers(1) Longford(10) Drogheda(6) Dundalk(7) Sligo Rovers(3) Finn Harps(9) Bohemians(5) Longford(10) Shamrock Rovers(1) St. Patricks(2) Drogheda(6)</t>
-  </si>
-  <si>
-    <t>Drogheda,St. Patricks(2) Finn Harps(9) Longford(10) Derry City(4) Shamrock Rovers(1) Dundalk(7) Sligo Rovers(3) Bohemians(5) Waterford(8) St. Patricks(2) Finn Harps(9) Longford(10) Derry City(4) Sligo Rovers(3) Bohemians(5) Dundalk(7) Shamrock Rovers(1) Finn Harps(9) Longford(10) St. Patricks(2) Waterford(8) Derry City(4) Shamrock Rovers(1) Dundalk(7) Sligo Rovers(3) Bohemians(5) Waterford(8) St. Patricks(2) Longford(10) Derry City(4)</t>
-  </si>
-  <si>
-    <t>Dundalk,Shamrock Rovers(1) Bohemians(5) St. Patricks(2) Derry City(4) Drogheda(6) Waterford(8) Longford(10) Sligo Rovers(3) Finn Harps(9) Shamrock Rovers(1) Bohemians(5) St. Patricks(2) Waterford(8) Longford(10) Drogheda(6) Derry City(4) Shamrock Rovers(1) Finn Harps(9) St. Patricks(2) Derry City(4) Drogheda(6) Waterford(8) Longford(10) Sligo Rovers(3) Sligo Rovers(3) Bohemians(5) Finn Harps(9) Shamrock Rovers(1) Bohemians(5) St. Patricks(2)</t>
-  </si>
-  <si>
-    <t>Finn Harps,Dundalk(7) Drogheda(6) Waterford(8) Sligo Rovers(3) Longford(10) St. Patricks(2) Shamrock Rovers(1) Derry City(4) Bohemians(5) Dundalk(7) Drogheda(6) Waterford(8) Sligo Rovers(3) Shamrock Rovers(1) Derry City(4) St. Patricks(2) Longford(10) Drogheda(6) Waterford(8) Dundalk(7) Sligo Rovers(3) Longford(10) St. Patricks(2) Shamrock Rovers(1) Derry City(4) Bohemians(5) Bohemians(5) Dundalk(7) Waterford(8) Sligo Rovers(3)</t>
-  </si>
-  <si>
-    <t>Longford,Bohemians(5) Sligo Rovers(3) Drogheda(6) Shamrock Rovers(1) Finn Harps(9) Waterford(8) St. Patricks(2) Dundalk(7) Derry City(4) Bohemians(5) Sligo Rovers(3) Drogheda(6) Shamrock Rovers(1) St. Patricks(2) Dundalk(7) Waterford(8) Finn Harps(9) Sligo Rovers(3) Drogheda(6) Bohemians(5) Derry City(4) Shamrock Rovers(1) Finn Harps(9) Waterford(8) St. Patricks(2) Dundalk(7) Derry City(4) Bohemians(5) Drogheda(6) Shamrock Rovers(1)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,Sligo Rovers(3) Derry City(4) Longford(10) Drogheda(6) Bohemians(5) Finn Harps(9) Waterford(8) St. Patricks(2) Derry City(4) Dundalk(7) Sligo Rovers(3) Longford(10) Finn Harps(9) Waterford(8) Bohemians(5) Drogheda(6) Dundalk(7) Derry City(4) St. Patricks(2) Longford(10) Drogheda(6) Finn Harps(9) Waterford(8) Sligo Rovers(3) St. Patricks(2) Derry City(4) Dundalk(7) Sligo Rovers(3) Bohemians(5) Longford(10)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,Waterford(8) Longford(10) Shamrock Rovers(1) Finn Harps(9) Bohemians(5) Derry City(4) Drogheda(6) St. Patricks(2) Dundalk(7) Waterford(8) Longford(10) Shamrock Rovers(1) Finn Harps(9) Drogheda(6) St. Patricks(2) Derry City(4) Bohemians(5) Longford(10) Waterford(8) Finn Harps(9) Bohemians(5) Derry City(4) Drogheda(6) St. Patricks(2) Dundalk(7) Shamrock Rovers(1) Dundalk(7) Waterford(8) Shamrock Rovers(1) Finn Harps(9)</t>
-  </si>
-  <si>
-    <t>St. Patricks,Drogheda(6) Bohemians(5) Derry City(4) Dundalk(7) Waterford(8) Finn Harps(9) Longford(10) Sligo Rovers(3) Shamrock Rovers(1) Drogheda(6) Bohemians(5) Derry City(4) Dundalk(7) Longford(10) Sligo Rovers(3) Finn Harps(9) Waterford(8) Bohemians(5) Derry City(4) Drogheda(6) Shamrock Rovers(1) Dundalk(7) Waterford(8) Finn Harps(9) Longford(10) Sligo Rovers(3) Shamrock Rovers(1) Drogheda(6) Derry City(4) Dundalk(7)</t>
-  </si>
-  <si>
-    <t>Waterford,Sligo Rovers(3) Derry City(4) Finn Harps(9) Bohemians(5) St. Patricks(2) Longford(10) Dundalk(7) Shamrock Rovers(1) Drogheda(6) Sligo Rovers(3) Derry City(4) Finn Harps(9) Bohemians(5) Dundalk(7) Shamrock Rovers(1) Longford(10) St. Patricks(2) Derry City(4) Finn Harps(9) Sligo Rovers(3) Drogheda(6) Bohemians(5) St. Patricks(2) Longford(10) Dundalk(7) Shamrock Rovers(1) Drogheda(6) Sligo Rovers(3) Finn Harps(9) Bohemians(5)</t>
+    <t>Bohemians,L L W D D L</t>
+  </si>
+  <si>
+    <t>Derry City,D D W L W L</t>
+  </si>
+  <si>
+    <t>Drogheda,D W L L W W</t>
+  </si>
+  <si>
+    <t>Dundalk,W W D W D L</t>
+  </si>
+  <si>
+    <t>Finn Harps,D L W D L D</t>
+  </si>
+  <si>
+    <t>Longford,L W L L L L</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,W W L W D W</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,W L L D L D</t>
+  </si>
+  <si>
+    <t>St. Patricks,W L L W L W</t>
+  </si>
+  <si>
+    <t>Waterford,D L W D W W</t>
+  </si>
+  <si>
+    <t>Bohemians,1 1 4 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Derry City,2 3 3 1 1 0,(10)</t>
+  </si>
+  <si>
+    <t>Drogheda,0 3 0 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Dundalk,4 2 2 1 1 0,(10)</t>
+  </si>
+  <si>
+    <t>Finn Harps,2 1 2 2 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Longford,2 1 0 1 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,1 2 0 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,2 0 1 1 0 2,(6)</t>
+  </si>
+  <si>
+    <t>St. Patricks,3 0 0 1 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Waterford,1 0 1 1 4 2,(9)</t>
+  </si>
+  <si>
+    <t>Bohemians,2 2 1 1 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Derry City,2 3 0 2 0 1,(8)</t>
+  </si>
+  <si>
+    <t>Drogheda,0 2 1 1 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Dundalk,1 1 2 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Finn Harps,2 2 1 2 4 2,(13)</t>
+  </si>
+  <si>
+    <t>Longford,3 0 3 4 2 1,(13)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,0 1 1 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,1 1 4 1 2 2,(11)</t>
+  </si>
+  <si>
+    <t>St. Patricks,2 2 1 0 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Waterford,1 2 0 1 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Bohemians,3 3 5 2 2 3,(18)</t>
+  </si>
+  <si>
+    <t>Derry City,4 6 3 3 1 1,(18)</t>
+  </si>
+  <si>
+    <t>Drogheda,0 5 1 1 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Dundalk,5 3 4 1 2 1,(16)</t>
+  </si>
+  <si>
+    <t>Finn Harps,4 3 3 4 5 4,(23)</t>
+  </si>
+  <si>
+    <t>Longford,5 1 3 5 2 1,(17)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,1 3 1 2 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,3 1 5 2 2 4,(17)</t>
+  </si>
+  <si>
+    <t>St. Patricks,5 2 1 1 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Waterford,2 2 1 2 5 3,(15)</t>
+  </si>
+  <si>
+    <t>Bohemians,1-2 2-1 1-4 1-1 1-1 1-2</t>
+  </si>
+  <si>
+    <t>Derry City,2-2 3-3 3-0 2-1 1-0 1-0</t>
+  </si>
+  <si>
+    <t>Drogheda,0-0 3-2 1-0 0-1 2-0 1-0</t>
+  </si>
+  <si>
+    <t>Dundalk,4-1 2-1 2-2 1-0 1-1 1-0</t>
+  </si>
+  <si>
+    <t>Finn Harps,2-2 1-2 1-2 2-2 4-1 2-2</t>
+  </si>
+  <si>
+    <t>Longford,3-2 1-0 3-0 1-4 2-0 0-1</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,0-1 2-1 1-0 2-0 1-1 0-1</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,2-1 0-1 4-1 1-1 2-0 2-2</t>
+  </si>
+  <si>
+    <t>St. Patricks,3-2 2-0 0-1 0-1 1-0 1-0</t>
+  </si>
+  <si>
+    <t>Waterford,1-1 2-0 1-0 1-1 4-1 1-2</t>
+  </si>
+  <si>
+    <t>Bohemians,-1 -1 3 0 0 -1,(0)</t>
+  </si>
+  <si>
+    <t>Derry City,0 0 3 -1 1 -1,(2)</t>
+  </si>
+  <si>
+    <t>Drogheda,0 1 -1 -1 2 1,(2)</t>
+  </si>
+  <si>
+    <t>Dundalk,3 1 0 1 0 -1,(4)</t>
+  </si>
+  <si>
+    <t>Finn Harps,0 -1 1 0 -3 0,(-3)</t>
+  </si>
+  <si>
+    <t>Longford,-1 1 -3 -3 -2 -1,(-9)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,1 1 -1 2 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,1 -1 -3 0 -2 0,(-5)</t>
+  </si>
+  <si>
+    <t>St. Patricks,1 -2 -1 1 -1 1,(-1)</t>
+  </si>
+  <si>
+    <t>Waterford,0 -2 1 0 3 1,(3)</t>
+  </si>
+  <si>
+    <t>Bohemians,Finn Harps(9) Dundalk(7) Longford(10) Dundalk(7) Shamrock Rovers(1) Waterford(8)</t>
+  </si>
+  <si>
+    <t>Derry City,Finn Harps(9) Bohemians(5) Longford(10) Shamrock Rovers(1) St. Patricks(2) Drogheda(6)</t>
+  </si>
+  <si>
+    <t>Drogheda,Sligo Rovers(3) Bohemians(5) Waterford(8) St. Patricks(2) Longford(10) Derry City(4)</t>
+  </si>
+  <si>
+    <t>Dundalk,Sligo Rovers(3) Bohemians(5) Finn Harps(9) Shamrock Rovers(1) Bohemians(5) St. Patricks(2)</t>
+  </si>
+  <si>
+    <t>Finn Harps,Derry City(4) Bohemians(5) Bohemians(5) Dundalk(7) Waterford(8) Sligo Rovers(3)</t>
+  </si>
+  <si>
+    <t>Longford,St. Patricks(2) Dundalk(7) Derry City(4) Bohemians(5) Drogheda(6) Shamrock Rovers(1)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,St. Patricks(2) Derry City(4) Dundalk(7) Sligo Rovers(3) Bohemians(5) Longford(10)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,Dundalk(7) Shamrock Rovers(1) Dundalk(7) Waterford(8) Shamrock Rovers(1) Finn Harps(9)</t>
+  </si>
+  <si>
+    <t>St. Patricks,Longford(10) Sligo Rovers(3) Shamrock Rovers(1) Drogheda(6) Derry City(4) Dundalk(7)</t>
+  </si>
+  <si>
+    <t>Waterford,Dundalk(7) Shamrock Rovers(1) Drogheda(6) Sligo Rovers(3) Finn Harps(9) Bohemians(5)</t>
   </si>
   <si>
     <t>irl_division</t>

--- a/IRL.xlsx
+++ b/IRL.xlsx
@@ -647,37 +647,37 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Bohemians,L D D W W D</t>
+    <t>Bohemians,L D L W W L L L D W W L W W D W W L W D L W L W D L L W D D L D D W W D</t>
   </si>
   <si>
     <t>Bray,D W L</t>
   </si>
   <si>
-    <t>Derry City,L D D D W W</t>
-  </si>
-  <si>
-    <t>Drogheda,W L D L L L</t>
-  </si>
-  <si>
-    <t>Dundalk,D L W W W L</t>
-  </si>
-  <si>
-    <t>Finn Harps,D L D D D W</t>
+    <t>Derry City,L L L L D D W W L D D W D W D W D L W L L W W W W D D W L W L D D D W W</t>
+  </si>
+  <si>
+    <t>Drogheda,W L D W D L L D D W W W W L W L L D W D L L L L W D W L L W W L D L L L</t>
+  </si>
+  <si>
+    <t>Dundalk,D L L L D D W W D L D W L W L D W W L W L L L D L L W W D W D L W W W L</t>
+  </si>
+  <si>
+    <t>Finn Harps,W W D W L D L L W L D L W L D L L D L L L W W W W D L W D L D L D D D W</t>
   </si>
   <si>
     <t>Galway,D L</t>
   </si>
   <si>
-    <t>Longford,L L L L D L</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,D W W W L W</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,D W W W L D</t>
-  </si>
-  <si>
-    <t>St. Patricks,W W D L D D</t>
+    <t>Longford,W D L L L D L L D D L L L L L D L D L D D L L L L L W L L L L L L L D L</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,D W D W W W W W W W D L L W D W L D W W W W W L W W W W L W D W W W L W</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,D W W D W W L D D W W W W W L L D W W L L L L D W W L L D L D W W W L D</t>
+  </si>
+  <si>
+    <t>St. Patricks,D W W W D W W W D L L W D L W W W D L W W L W W L W L L W L W W D L D D</t>
   </si>
   <si>
     <t>Treaty United,L W</t>
@@ -686,40 +686,40 @@
     <t>UC Dublin,W L W</t>
   </si>
   <si>
-    <t>Waterford,W L D L D D</t>
-  </si>
-  <si>
-    <t>Bohemians,1 1 2 2 3 1,(10)</t>
+    <t>Waterford,L L W L L L W L L L L L L L W L W D L W W W W L W D L W D W W L D L D D</t>
+  </si>
+  <si>
+    <t>Bohemians,0 2 0 1 1 1 1 1 1 4 2 1 5 3 1 5 1 0 3 1 0 1 2 2 3 1 1 4 1 1 1 1 2 2 3 1,(60)</t>
   </si>
   <si>
     <t>Bray,0 1 0,(1)</t>
   </si>
   <si>
-    <t>Derry City,0 1 2 1 2 2,(8)</t>
-  </si>
-  <si>
-    <t>Drogheda,1 0 0 0 1 1,(3)</t>
-  </si>
-  <si>
-    <t>Dundalk,1 0 1 1 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Finn Harps,2 0 0 1 2 5,(10)</t>
+    <t>Derry City,0 1 0 0 1 1 1 2 1 1 1 1 2 2 1 2 1 1 2 0 2 2 3 1 2 2 3 3 1 1 0 1 2 1 2 2,(49)</t>
+  </si>
+  <si>
+    <t>Drogheda,1 1 1 4 1 0 1 1 1 7 3 1 4 1 2 0 0 1 3 1 0 1 0 0 2 0 3 0 0 2 1 0 0 0 1 1,(45)</t>
+  </si>
+  <si>
+    <t>Dundalk,1 1 1 0 1 1 2 3 2 0 1 2 1 2 1 1 1 2 1 1 1 0 1 1 0 1 4 2 2 1 1 0 1 1 2 1,(44)</t>
+  </si>
+  <si>
+    <t>Finn Harps,1 2 1 2 0 0 0 0 2 0 1 0 2 1 1 1 1 1 1 0 0 1 3 3 2 2 1 2 2 1 2 0 0 1 2 5,(44)</t>
   </si>
   <si>
     <t>Galway,0 0,(0)</t>
   </si>
   <si>
-    <t>Longford,0 1 0 0 1 0,(2)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,1 1 3 3 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,2 2 1 3 0 1,(9)</t>
-  </si>
-  <si>
-    <t>St. Patricks,1 4 2 0 2 0,(9)</t>
+    <t>Longford,2 2 0 0 1 0 0 0 2 1 0 0 1 0 1 1 1 1 0 1 1 0 0 0 1 2 1 0 1 0 0 1 0 0 1 0,(22)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,1 2 1 2 2 1 2 2 3 2 1 1 0 1 1 4 0 1 3 4 3 1 1 1 2 1 1 2 0 2 1 1 3 3 1 2,(59)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,1 2 1 1 1 3 0 1 1 1 3 2 1 2 1 0 1 4 1 0 0 0 1 0 2 2 0 1 1 0 2 2 1 3 0 1,(43)</t>
+  </si>
+  <si>
+    <t>St. Patricks,1 2 1 2 1 1 2 3 1 1 1 2 2 0 3 2 4 1 2 1 2 1 4 2 1 3 0 0 1 0 1 4 2 0 2 0,(56)</t>
   </si>
   <si>
     <t>Treaty United,0 2,(2)</t>
@@ -728,40 +728,40 @@
     <t>UC Dublin,3 1 2,(6)</t>
   </si>
   <si>
-    <t>Waterford,2 0 2 1 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Bohemians,2 1 2 1 1 1,(8)</t>
+    <t>Waterford,0 1 2 1 0 0 1 0 0 0 0 0 1 0 3 1 2 1 0 1 1 2 1 1 4 1 0 1 1 4 2 0 2 1 1 0,(36)</t>
+  </si>
+  <si>
+    <t>Bohemians,1 2 1 0 0 3 2 2 1 0 0 2 1 0 1 0 0 4 2 1 1 0 3 1 3 2 2 1 1 1 2 1 2 1 1 1,(46)</t>
   </si>
   <si>
     <t>Bray,0 0 2,(2)</t>
   </si>
   <si>
-    <t>Derry City,1 1 2 1 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Drogheda,0 2 0 1 2 2,(7)</t>
-  </si>
-  <si>
-    <t>Dundalk,1 1 0 0 0 2,(4)</t>
-  </si>
-  <si>
-    <t>Finn Harps,2 3 0 1 2 0,(8)</t>
+    <t>Derry City,2 2 2 2 1 1 0 1 2 1 1 0 2 1 1 1 1 2 0 1 4 0 0 0 1 2 3 0 2 0 1 1 2 1 0 1,(42)</t>
+  </si>
+  <si>
+    <t>Drogheda,0 2 1 0 1 1 2 1 1 0 1 0 1 2 1 5 1 1 1 1 2 2 3 1 1 0 2 1 1 0 0 2 0 1 2 2,(43)</t>
+  </si>
+  <si>
+    <t>Dundalk,1 2 2 1 1 1 1 0 2 1 1 1 5 0 3 1 0 1 3 0 4 1 2 1 1 2 1 1 2 0 1 1 0 0 0 2,(46)</t>
+  </si>
+  <si>
+    <t>Finn Harps,0 1 1 1 1 0 2 2 1 4 1 1 1 2 1 2 4 1 3 1 1 0 0 1 1 2 2 1 2 4 2 3 0 1 2 0,(52)</t>
   </si>
   <si>
     <t>Galway,0 1,(1)</t>
   </si>
   <si>
-    <t>Longford,1 4 1 2 1 5,(14)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,1 0 0 1 3 1,(6)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,2 0 0 0 2 1,(5)</t>
-  </si>
-  <si>
-    <t>St. Patricks,0 1 2 3 2 0,(8)</t>
+    <t>Longford,0 2 1 4 2 0 1 3 2 1 2 2 4 1 3 1 2 1 1 1 1 2 1 3 4 3 0 3 4 2 1 4 1 2 1 5,(71)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,1 1 1 0 1 0 1 0 0 1 1 2 1 0 1 1 1 1 1 2 1 0 0 2 0 0 0 1 1 0 1 0 0 1 3 1,(28)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,1 1 0 1 0 1 1 1 1 0 0 0 0 1 2 2 1 0 0 1 1 1 2 0 0 1 1 4 1 2 2 0 0 0 2 1,(32)</t>
+  </si>
+  <si>
+    <t>St. Patricks,1 1 0 0 1 0 0 0 1 2 3 1 2 2 1 0 1 1 3 0 0 3 1 1 3 2 2 1 0 1 0 1 2 3 2 0,(42)</t>
   </si>
   <si>
     <t>Treaty United,3 1,(4)</t>
@@ -770,37 +770,37 @@
     <t>UC Dublin,0 2 0,(2)</t>
   </si>
   <si>
-    <t>Waterford,1 1 2 3 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Bohemians,3 2 4 3 4 2,(18)</t>
+    <t>Waterford,1 2 1 2 1 1 0 3 3 7 3 1 2 3 1 4 1 1 2 0 0 1 0 2 1 1 2 0 1 1 1 1 2 3 1 0,(56)</t>
+  </si>
+  <si>
+    <t>Bohemians,1 4 1 1 1 4 3 3 2 4 2 3 6 3 2 5 1 4 5 2 1 1 5 3 6 3 3 5 2 2 3 2 4 3 4 2,(106)</t>
   </si>
   <si>
     <t>Bray,0 1 2,(3)</t>
   </si>
   <si>
-    <t>Derry City,1 2 4 2 2 3,(14)</t>
-  </si>
-  <si>
-    <t>Drogheda,1 2 0 1 3 3,(10)</t>
-  </si>
-  <si>
-    <t>Dundalk,2 1 1 1 2 3,(10)</t>
-  </si>
-  <si>
-    <t>Finn Harps,4 3 0 2 4 5,(18)</t>
-  </si>
-  <si>
-    <t>Longford,1 5 1 2 2 5,(16)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,2 1 3 4 4 3,(17)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,4 2 1 3 2 2,(14)</t>
-  </si>
-  <si>
-    <t>St. Patricks,1 5 4 3 4 0,(17)</t>
+    <t>Derry City,2 3 2 2 2 2 1 3 3 2 2 1 4 3 2 3 2 3 2 1 6 2 3 1 3 4 6 3 3 1 1 2 4 2 2 3,(91)</t>
+  </si>
+  <si>
+    <t>Drogheda,1 3 2 4 2 1 3 2 2 7 4 1 5 3 3 5 1 2 4 2 2 3 3 1 3 0 5 1 1 2 1 2 0 1 3 3,(88)</t>
+  </si>
+  <si>
+    <t>Dundalk,2 3 3 1 2 2 3 3 4 1 2 3 6 2 4 2 1 3 4 1 5 1 3 2 1 3 5 3 4 1 2 1 1 1 2 3,(90)</t>
+  </si>
+  <si>
+    <t>Finn Harps,1 3 2 3 1 0 2 2 3 4 2 1 3 3 2 3 5 2 4 1 1 1 3 4 3 4 3 3 4 5 4 3 0 2 4 5,(96)</t>
+  </si>
+  <si>
+    <t>Longford,2 4 1 4 3 0 1 3 4 2 2 2 5 1 4 2 3 2 1 2 2 2 1 3 5 5 1 3 5 2 1 5 1 2 2 5,(93)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,2 3 2 2 3 1 3 2 3 3 2 3 1 1 2 5 1 2 4 6 4 1 1 3 2 1 1 3 1 2 2 1 3 4 4 3,(87)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,2 3 1 2 1 4 1 2 2 1 3 2 1 3 3 2 2 4 1 1 1 1 3 0 2 3 1 5 2 2 4 2 1 3 2 2,(75)</t>
+  </si>
+  <si>
+    <t>St. Patricks,2 3 1 2 2 1 2 3 2 3 4 3 4 2 4 2 5 2 5 1 2 4 5 3 4 5 2 1 1 1 1 5 4 3 4 0,(98)</t>
   </si>
   <si>
     <t>Treaty United,3 3,(6)</t>
@@ -809,40 +809,40 @@
     <t>UC Dublin,3 3 2,(8)</t>
   </si>
   <si>
-    <t>Waterford,3 1 4 4 2 0,(14)</t>
-  </si>
-  <si>
-    <t>Bohemians,1-2 1-1 2-2 2-1 3-1 1-1</t>
+    <t>Waterford,1 3 3 3 1 1 1 3 3 7 3 1 3 3 4 5 3 2 2 1 1 3 1 3 5 2 2 1 2 5 3 1 4 4 2 0,(92)</t>
+  </si>
+  <si>
+    <t>Bohemians,1-0 2-2 0-1 0-1 0-1 1-3 2-1 1-2 1-1 4-0 0-2 2-1 5-1 3-0 1-1 5-0 1-0 4-0 3-2 1-1 1-0 1-0 3-2 1-2 3-3 1-2 2-1 1-4 1-1 1-1 1-2 1-1 2-2 2-1 3-1 1-1</t>
   </si>
   <si>
     <t>Bray,0-0 0-1 0-2</t>
   </si>
   <si>
-    <t>Derry City,1-0 1-1 2-2 1-1 2-0 1-2</t>
-  </si>
-  <si>
-    <t>Drogheda,1-0 2-0 0-0 0-1 2-1 2-1</t>
-  </si>
-  <si>
-    <t>Dundalk,1-1 1-0 1-0 0-1 2-0 1-2</t>
-  </si>
-  <si>
-    <t>Finn Harps,2-2 3-0 0-0 1-1 2-2 5-0</t>
+    <t>Derry City,2-0 1-2 2-0 0-2 1-1 1-1 0-1 1-2 1-2 1-1 1-1 0-1 2-2 1-2 1-1 1-2 1-1 2-1 2-0 1-0 2-4 0-2 3-0 1-0 1-2 2-2 3-3 3-0 2-1 1-0 1-0 1-1 2-2 1-1 2-0 1-2</t>
+  </si>
+  <si>
+    <t>Drogheda,1-0 2-1 1-1 0-4 1-1 0-1 2-1 1-1 1-1 0-7 3-1 0-1 4-1 1-2 1-2 5-0 0-1 1-1 3-1 1-1 2-0 1-2 3-0 0-1 1-2 0-0 3-2 1-0 0-1 2-0 1-0 2-0 0-0 0-1 2-1 2-1</t>
+  </si>
+  <si>
+    <t>Dundalk,1-1 1-2 2-1 0-1 1-1 1-1 2-1 0-3 2-2 0-1 1-1 2-1 5-1 0-2 1-3 1-1 0-1 2-1 3-1 1-0 1-4 1-0 1-2 1-1 1-0 2-1 4-1 2-1 2-2 1-0 1-1 1-0 1-0 0-1 2-0 1-2</t>
+  </si>
+  <si>
+    <t>Finn Harps,1-0 1-2 1-1 2-1 1-0 0-0 0-2 0-2 1-2 4-0 1-1 0-1 1-2 1-2 1-1 1-2 4-1 1-1 3-1 0-1 1-0 0-1 0-3 3-1 2-1 2-2 1-2 1-2 2-2 4-1 2-2 3-0 0-0 1-1 2-2 5-0</t>
   </si>
   <si>
     <t>Galway,0-0 0-1</t>
   </si>
   <si>
-    <t>Longford,0-1 1-4 1-0 2-0 1-1 5-0</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,1-1 0-1 3-0 1-3 3-1 2-1</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,2-2 2-0 1-0 0-3 2-0 1-1</t>
-  </si>
-  <si>
-    <t>St. Patricks,1-0 1-4 2-2 0-3 2-2 0-0</t>
+    <t>Longford,2-0 2-2 0-1 0-4 2-1 0-0 1-0 3-0 2-2 1-1 0-2 2-0 4-1 0-1 1-3 1-1 1-2 1-1 0-1 1-1 1-1 0-2 1-0 0-3 4-1 3-2 1-0 3-0 1-4 2-0 0-1 1-4 1-0 2-0 1-1 5-0</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,1-1 2-1 1-1 0-2 2-1 0-1 2-1 0-2 3-0 1-2 1-1 2-1 0-1 0-1 1-1 1-4 1-0 1-1 3-1 2-4 3-1 1-0 0-1 2-1 2-0 0-1 0-1 2-1 1-0 2-0 1-1 0-1 3-0 1-3 3-1 2-1</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,1-1 1-2 0-1 1-1 1-0 1-3 0-1 1-1 1-1 0-1 3-0 2-0 0-1 1-2 1-2 2-0 1-1 4-0 0-1 1-0 0-1 1-0 1-2 0-0 2-0 2-1 0-1 4-1 1-1 2-0 2-2 2-0 1-0 0-3 2-0 1-1</t>
+  </si>
+  <si>
+    <t>St. Patricks,1-1 2-1 0-1 2-0 1-1 1-0 0-2 3-0 1-1 1-2 3-1 2-1 2-2 0-2 1-3 2-0 4-1 1-1 3-2 1-0 2-0 3-1 1-4 2-1 3-1 3-2 2-0 0-1 0-1 1-0 1-0 1-4 2-2 0-3 2-2 0-0</t>
   </si>
   <si>
     <t>Treaty United,0-3 1-2</t>
@@ -851,40 +851,40 @@
     <t>UC Dublin,0-3 1-2 0-2</t>
   </si>
   <si>
-    <t>Waterford,1-2 1-0 2-2 1-3 1-1 0-0</t>
-  </si>
-  <si>
-    <t>Bohemians,-1 0 0 1 2 0,(2)</t>
+    <t>Waterford,1-0 1-2 1-2 2-1 0-1 1-0 1-0 0-3 3-0 0-7 3-0 0-1 1-2 3-0 1-3 1-4 1-2 1-1 2-0 0-1 1-0 1-2 1-0 2-1 4-1 1-1 2-0 1-0 1-1 4-1 1-2 1-0 2-2 1-3 1-1 0-0</t>
+  </si>
+  <si>
+    <t>Bohemians,-1 0 -1 1 1 -2 -1 -1 0 4 2 -1 4 3 0 5 1 -4 1 0 -1 1 -1 1 0 -1 -1 3 0 0 -1 0 0 1 2 0,(14)</t>
   </si>
   <si>
     <t>Bray,0 1 -2,(-1)</t>
   </si>
   <si>
-    <t>Derry City,-1 0 0 0 2 1,(2)</t>
-  </si>
-  <si>
-    <t>Drogheda,1 -2 0 -1 -1 -1,(-4)</t>
-  </si>
-  <si>
-    <t>Dundalk,0 -1 1 1 2 -1,(2)</t>
-  </si>
-  <si>
-    <t>Finn Harps,0 -3 0 0 0 5,(2)</t>
+    <t>Derry City,-2 -1 -2 -2 0 0 1 1 -1 0 0 1 0 1 0 1 0 -1 2 -1 -2 2 3 1 1 0 0 3 -1 1 -1 0 0 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Drogheda,1 -1 0 4 0 -1 -1 0 0 7 2 1 3 -1 1 -5 -1 0 2 0 -2 -1 -3 -1 1 0 1 -1 -1 2 1 -2 0 -1 -1 -1,(2)</t>
+  </si>
+  <si>
+    <t>Dundalk,0 -1 -1 -1 0 0 1 3 0 -1 0 1 -4 2 -2 0 1 1 -2 1 -3 -1 -1 0 -1 -1 3 1 0 1 0 -1 1 1 2 -1,(-2)</t>
+  </si>
+  <si>
+    <t>Finn Harps,1 1 0 1 -1 0 -2 -2 1 -4 0 -1 1 -1 0 -1 -3 0 -2 -1 -1 1 3 2 1 0 -1 1 0 -3 0 -3 0 0 0 5,(-8)</t>
   </si>
   <si>
     <t>Galway,0 -1,(-1)</t>
   </si>
   <si>
-    <t>Longford,-1 -3 -1 -2 0 -5,(-12)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,0 1 3 2 -2 1,(5)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,0 2 1 3 -2 0,(4)</t>
-  </si>
-  <si>
-    <t>St. Patricks,1 3 0 -3 0 0,(1)</t>
+    <t>Longford,2 0 -1 -4 -1 0 -1 -3 0 0 -2 -2 -3 -1 -2 0 -1 0 -1 0 0 -2 -1 -3 -3 -1 1 -3 -3 -2 -1 -3 -1 -2 0 -5,(-49)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,0 1 0 2 1 1 1 2 3 1 0 -1 -1 1 0 3 -1 0 2 2 2 1 1 -1 2 1 1 1 -1 2 0 1 3 2 -2 1,(31)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,0 1 1 0 1 2 -1 0 0 1 3 2 1 1 -1 -2 0 4 1 -1 -1 -1 -1 0 2 1 -1 -3 0 -2 0 2 1 3 -2 0,(11)</t>
+  </si>
+  <si>
+    <t>St. Patricks,0 1 1 2 0 1 2 3 0 -1 -2 1 0 -2 2 2 3 0 -1 1 2 -2 3 1 -2 1 -2 -1 1 -1 1 3 0 -3 0 0,(14)</t>
   </si>
   <si>
     <t>Treaty United,-3 1,(-2)</t>
@@ -893,40 +893,40 @@
     <t>UC Dublin,3 -1 2,(4)</t>
   </si>
   <si>
-    <t>Waterford,1 -1 0 -2 0 0,(-2)</t>
-  </si>
-  <si>
-    <t>Bohemians,Waterford(9) Derry City(4) St. Patricks(2) Drogheda(7) Shamrock Rovers(1) Sligo Rovers(3)</t>
+    <t>Waterford,-1 -1 1 -1 -1 -1 1 -3 -3 -7 -3 -1 -1 -3 2 -3 1 0 -2 1 1 1 1 -1 3 0 -2 1 0 3 1 -1 0 -2 0 0,(-20)</t>
+  </si>
+  <si>
+    <t>Bohemians,Finn Harps(8) Longford(10) St. Patricks(2) Dundalk(6) Waterford(9) Sligo Rovers(3) Shamrock Rovers(1) Derry City(4) Drogheda(7) Finn Harps(8) Longford(10) St. Patricks(2) Dundalk(6) Waterford(9) Derry City(4) Drogheda(7) Shamrock Rovers(1) Sligo Rovers(3) St. Patricks(2) Longford(10) Waterford(9) Sligo Rovers(3) Drogheda(7) Finn Harps(8) Derry City(4) Finn Harps(8) Dundalk(6) Longford(10) Dundalk(6) Shamrock Rovers(1) Waterford(9) Derry City(4) St. Patricks(2) Drogheda(7) Shamrock Rovers(1) Sligo Rovers(3)</t>
   </si>
   <si>
     <t>Bray,Galway(14) Galway(14) UC Dublin(11)</t>
   </si>
   <si>
-    <t>Derry City,Drogheda(7) Bohemians(5) Waterford(9) Finn Harps(8) Sligo Rovers(3) Dundalk(6)</t>
-  </si>
-  <si>
-    <t>Drogheda,Derry City(4) Sligo Rovers(3) Finn Harps(8) Dundalk(6) Bohemians(5) Shamrock Rovers(1)</t>
-  </si>
-  <si>
-    <t>Dundalk,Bohemians(5) St. Patricks(2) Waterford(9) Drogheda(7) Longford(10) Derry City(4)</t>
-  </si>
-  <si>
-    <t>Finn Harps,Sligo Rovers(3) Shamrock Rovers(1) Drogheda(7) Derry City(4) St. Patricks(2) Longford(10)</t>
+    <t>Derry City,Longford(10) Waterford(9) St. Patricks(2) Shamrock Rovers(1) Drogheda(7) Dundalk(6) Sligo Rovers(3) Bohemians(5) Finn Harps(8) Longford(10) Shamrock Rovers(1) Waterford(9) St. Patricks(2) Drogheda(7) Bohemians(5) Finn Harps(8) Sligo Rovers(3) Dundalk(6) Waterford(9) St. Patricks(2) Shamrock Rovers(1) Longford(10) Drogheda(7) Dundalk(6) Sligo Rovers(3) Finn Harps(8) Bohemians(5) Longford(10) Shamrock Rovers(1) St. Patricks(2) Drogheda(7) Bohemians(5) Waterford(9) Finn Harps(8) Sligo Rovers(3) Dundalk(6)</t>
+  </si>
+  <si>
+    <t>Drogheda,Waterford(9) St. Patricks(2) Finn Harps(8) Longford(10) Derry City(4) Shamrock Rovers(1) Dundalk(6) Sligo Rovers(3) Bohemians(5) Waterford(9) St. Patricks(2) Finn Harps(8) Longford(10) Derry City(4) Sligo Rovers(3) Bohemians(5) Dundalk(6) Shamrock Rovers(1) Finn Harps(8) Longford(10) St. Patricks(2) Waterford(9) Derry City(4) Shamrock Rovers(1) Dundalk(6) Sligo Rovers(3) Bohemians(5) Waterford(9) St. Patricks(2) Longford(10) Derry City(4) Sligo Rovers(3) Finn Harps(8) Dundalk(6) Bohemians(5) Shamrock Rovers(1)</t>
+  </si>
+  <si>
+    <t>Dundalk,Sligo Rovers(3) Finn Harps(8) Shamrock Rovers(1) Bohemians(5) St. Patricks(2) Derry City(4) Drogheda(7) Waterford(9) Longford(10) Sligo Rovers(3) Finn Harps(8) Shamrock Rovers(1) Bohemians(5) St. Patricks(2) Waterford(9) Longford(10) Drogheda(7) Derry City(4) Shamrock Rovers(1) Finn Harps(8) St. Patricks(2) Derry City(4) Drogheda(7) Waterford(9) Longford(10) Sligo Rovers(3) Sligo Rovers(3) Bohemians(5) Finn Harps(8) Shamrock Rovers(1) Bohemians(5) St. Patricks(2) Waterford(9) Drogheda(7) Longford(10) Derry City(4)</t>
+  </si>
+  <si>
+    <t>Finn Harps,Bohemians(5) Dundalk(6) Drogheda(7) Waterford(9) Sligo Rovers(3) Longford(10) St. Patricks(2) Shamrock Rovers(1) Derry City(4) Bohemians(5) Dundalk(6) Drogheda(7) Waterford(9) Sligo Rovers(3) Shamrock Rovers(1) Derry City(4) St. Patricks(2) Longford(10) Drogheda(7) Waterford(9) Dundalk(6) Sligo Rovers(3) Longford(10) St. Patricks(2) Shamrock Rovers(1) Derry City(4) Bohemians(5) Bohemians(5) Dundalk(6) Waterford(9) Sligo Rovers(3) Shamrock Rovers(1) Drogheda(7) Derry City(4) St. Patricks(2) Longford(10)</t>
   </si>
   <si>
     <t>Galway,Bray(12) Bray(12)</t>
   </si>
   <si>
-    <t>Longford,Shamrock Rovers(1) St. Patricks(2) Sligo Rovers(3) Dundalk(6) Waterford(9) Finn Harps(8)</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers,Bohemians(5) Longford(10) Finn Harps(8) Waterford(9) Bohemians(5) Drogheda(7)</t>
-  </si>
-  <si>
-    <t>Sligo Rovers,Finn Harps(8) Drogheda(7) Longford(10) St. Patricks(2) Derry City(4) Bohemians(5)</t>
-  </si>
-  <si>
-    <t>St. Patricks,Dundalk(6) Longford(10) Bohemians(5) Sligo Rovers(3) Finn Harps(8) Waterford(9)</t>
+    <t>Longford,Derry City(4) Bohemians(5) Sligo Rovers(3) Drogheda(7) Shamrock Rovers(1) Finn Harps(8) Waterford(9) St. Patricks(2) Dundalk(6) Derry City(4) Bohemians(5) Sligo Rovers(3) Drogheda(7) Shamrock Rovers(1) St. Patricks(2) Dundalk(6) Waterford(9) Finn Harps(8) Sligo Rovers(3) Drogheda(7) Bohemians(5) Derry City(4) Shamrock Rovers(1) Finn Harps(8) Waterford(9) St. Patricks(2) Dundalk(6) Derry City(4) Bohemians(5) Drogheda(7) Shamrock Rovers(1) St. Patricks(2) Sligo Rovers(3) Dundalk(6) Waterford(9) Finn Harps(8)</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers,St. Patricks(2) Dundalk(6) Sligo Rovers(3) Derry City(4) Longford(10) Drogheda(7) Bohemians(5) Finn Harps(8) Waterford(9) St. Patricks(2) Derry City(4) Dundalk(6) Sligo Rovers(3) Longford(10) Finn Harps(8) Waterford(9) Bohemians(5) Drogheda(7) Dundalk(6) Derry City(4) St. Patricks(2) Longford(10) Drogheda(7) Finn Harps(8) Waterford(9) Sligo Rovers(3) St. Patricks(2) Derry City(4) Dundalk(6) Sligo Rovers(3) Bohemians(5) Longford(10) Finn Harps(8) Waterford(9) Bohemians(5) Drogheda(7)</t>
+  </si>
+  <si>
+    <t>Sligo Rovers,Dundalk(6) Waterford(9) Longford(10) Shamrock Rovers(1) Finn Harps(8) Bohemians(5) Derry City(4) Drogheda(7) St. Patricks(2) Dundalk(6) Waterford(9) Longford(10) Shamrock Rovers(1) Finn Harps(8) Drogheda(7) St. Patricks(2) Derry City(4) Bohemians(5) Longford(10) Waterford(9) Finn Harps(8) Bohemians(5) Derry City(4) Drogheda(7) St. Patricks(2) Dundalk(6) Shamrock Rovers(1) Dundalk(6) Waterford(9) Shamrock Rovers(1) Finn Harps(8) Drogheda(7) Longford(10) St. Patricks(2) Derry City(4) Bohemians(5)</t>
+  </si>
+  <si>
+    <t>St. Patricks,Shamrock Rovers(1) Drogheda(7) Bohemians(5) Derry City(4) Dundalk(6) Waterford(9) Finn Harps(8) Longford(10) Sligo Rovers(3) Shamrock Rovers(1) Drogheda(7) Bohemians(5) Derry City(4) Dundalk(6) Longford(10) Sligo Rovers(3) Finn Harps(8) Waterford(9) Bohemians(5) Derry City(4) Drogheda(7) Shamrock Rovers(1) Dundalk(6) Waterford(9) Finn Harps(8) Longford(10) Sligo Rovers(3) Shamrock Rovers(1) Drogheda(7) Derry City(4) Dundalk(6) Longford(10) Bohemians(5) Sligo Rovers(3) Finn Harps(8) Waterford(9)</t>
   </si>
   <si>
     <t>Treaty United,UC Dublin(11) UC Dublin(11)</t>
@@ -935,7 +935,7 @@
     <t>UC Dublin,Treaty United(13) Treaty United(13) Bray(12)</t>
   </si>
   <si>
-    <t>Waterford,Bohemians(5) Dundalk(6) Derry City(4) Shamrock Rovers(1) Longford(10) St. Patricks(2)</t>
+    <t>Waterford,Drogheda(7) Sligo Rovers(3) Derry City(4) Finn Harps(8) Bohemians(5) St. Patricks(2) Longford(10) Dundalk(6) Shamrock Rovers(1) Drogheda(7) Sligo Rovers(3) Derry City(4) Finn Harps(8) Bohemians(5) Dundalk(6) Shamrock Rovers(1) Longford(10) St. Patricks(2) Derry City(4) Finn Harps(8) Sligo Rovers(3) Drogheda(7) Bohemians(5) St. Patricks(2) Longford(10) Dundalk(6) Shamrock Rovers(1) Drogheda(7) Sligo Rovers(3) Finn Harps(8) Bohemians(5) Dundalk(6) Derry City(4) Shamrock Rovers(1) Longford(10) St. Patricks(2)</t>
   </si>
   <si>
     <t>irl_division</t>
